--- a/data/trans_dic/P15_4-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P15_4-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con amigos, compañeros de trabajo/estudios, vecinos no convivientes con COVID-19</t>
+          <t>Población con amigos, compañeros de trabajo/estudios, vecinos no convivientes con COVID-19 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -680,77 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21,84%</t>
+          <t>22,11%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>30,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>12,49%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>21,69%</t>
+          <t>22,45%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>31,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>15,32%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>22,29%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>31,01%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,2; 8,62</t>
+          <t>2,16; 11,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 4,6</t>
+          <t>0,0; 4,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,9; 22,99</t>
+          <t>12,81; 29,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,15; 27,53</t>
+          <t>17,12; 27,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,92; 35,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,91; 8,94</t>
+          <t>0,66; 6,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,06</t>
+          <t>0,0; 2,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,53; 14,85</t>
+          <t>8,89; 16,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,33; 25,79</t>
+          <t>18,54; 26,52</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>25,92; 37,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,31; 7,92</t>
+          <t>2,06; 7,59</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,05</t>
+          <t>0,27; 2,41</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>10,94; 17,19</t>
+          <t>11,99; 21,13</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>18,49; 25,09</t>
+          <t>19,34; 25,64</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>27,16; 35,26</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,77 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>9,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>26,18%</t>
+          <t>24,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>35,27%</t>
+          <t>35,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>43,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,92%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23,81%</t>
+          <t>23,92%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>31,65%</t>
+          <t>31,33%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>41,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>25,02%</t>
+          <t>24,3%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>33,53%</t>
+          <t>33,71%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>42,7%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,91; 14,76</t>
+          <t>14,37; 23,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,23; 9,6</t>
+          <t>6,51; 12,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,68; 30,13</t>
+          <t>20,83; 29,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>31,16; 40,04</t>
+          <t>31,33; 40,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,16; 48,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,97; 13,25</t>
+          <t>8,02; 14,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,38; 8,03</t>
+          <t>3,57; 8,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,44; 27,61</t>
+          <t>20,03; 27,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,12; 35,62</t>
+          <t>27,71; 34,74</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>37,15; 45,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,14; 13,43</t>
+          <t>11,92; 17,83</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,76; 8,05</t>
+          <t>5,77; 9,84</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>22,51; 27,38</t>
+          <t>21,67; 27,34</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>30,63; 36,57</t>
+          <t>30,87; 36,64</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>39,28; 45,85</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>19,58%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>34,48%</t>
+          <t>34,43%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>46,26%</t>
+          <t>46,01%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>56,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,05%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>37,8%</t>
+          <t>38,99%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>46,16%</t>
+          <t>46,36%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>47,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>36,18%</t>
+          <t>36,83%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>46,21%</t>
+          <t>46,19%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>51,9%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,21; 22,96</t>
+          <t>14,76; 25,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,57; 14,99</t>
+          <t>7,34; 14,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,0; 38,94</t>
+          <t>29,29; 39,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>41,22; 51,25</t>
+          <t>41,44; 51,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>49,43; 64,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,0; 22,8</t>
+          <t>14,49; 24,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,49; 11,76</t>
+          <t>7,38; 14,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>34,02; 42,01</t>
+          <t>34,81; 43,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>42,11; 50,12</t>
+          <t>42,44; 50,78</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>41,68; 54,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,17; 21,68</t>
+          <t>15,81; 23,23</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,76; 12,4</t>
+          <t>8,37; 13,29</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>33,18; 39,55</t>
+          <t>33,74; 40,46</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>43,05; 49,26</t>
+          <t>43,08; 49,76</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>47,07; 57,16</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>26,47%</t>
+          <t>27,37%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>35,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>42,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,79%</t>
+          <t>18,86%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>33,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>39,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>25,61%</t>
+          <t>23,37%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>34,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>40,98%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,83 +1274,261 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,33; 15,13</t>
+          <t>8,57; 13,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,87; 9,21</t>
+          <t>3,23; 6,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,99; 28,99</t>
+          <t>22,21; 33,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>33,06; 38,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>39,22; 46,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,55; 13,54</t>
+          <t>9,78; 13,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,26; 7,0</t>
+          <t>2,11; 5,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,57; 27,01</t>
+          <t>14,8; 23,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>31,35; 36,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>36,06; 42,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,35; 13,86</t>
+          <t>9,66; 12,8</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,35; 7,42</t>
+          <t>2,95; 5,39</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>23,87; 27,38</t>
+          <t>20,37; 27,05</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>32,95; 36,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>38,86; 43,47</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>13,05%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6,9%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>26,84%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>36,21%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>12,0%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,15%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>24,77%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>33,99%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>12,51%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6,0%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>25,78%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>35,08%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11,43; 15,15</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5,49; 8,33</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>24,31; 29,54</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>33,22; 39,13</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>10,38; 13,61</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4,16; 6,33</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>22,65; 27,06</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>31,67; 36,17</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>11,33; 13,81</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5,12; 6,93</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>24,17; 27,47</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>33,19; 36,95</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1360,4 +1539,1461 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con amigos, compañeros de trabajo/estudios, vecinos no convivientes con COVID-19 (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>13356</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4542</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>99309</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>160999</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5854</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2104</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>79756</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>201742</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>19210</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>6646</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>179065</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>362741</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4882; 26975</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14793</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>67949; 158810</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>124653; 202450</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1728; 16088</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10641</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>56748; 106482</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>166610; 238333</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>10049; 37063</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2043; 18369</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>140125; 246979</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>314716; 417146</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>440.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>121988</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>89131</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>298089</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>582845</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>78228</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>56596</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>295018</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>472367</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>200215</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>145727</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>593107</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1055212</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>93525; 154368</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>60674; 120409</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>251415; 352393</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>508269; 649565</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>57331; 104727</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>35660; 83171</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>247026; 342465</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>417900; 523852</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>162796; 243535</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>111457; 190140</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>528876; 667070</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>966194; 1146863</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>274.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>312.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>494.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>89245</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>74824</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>291161</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>503112</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>103385</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>80798</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>367134</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>539273</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>192630</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>155622</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>658295</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1042384</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>67274; 116603</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>52532; 106485</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>247684; 332285</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>453074; 558879</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>77065; 130919</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>56737; 110402</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>327797; 410834</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>493700; 590676</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>156145; 229403</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>124324; 197259</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>603087; 723231</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>972127; 1122956</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>225221</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>69025</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>235395</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>244272</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>45551</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>143922</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>469493</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>114576</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>379317</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>181123; 277636</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>47073; 98241</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>191003; 288237</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>204412; 292425</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>29682; 73528</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>112930; 177215</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>406116; 538032</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>84349; 154221</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>330747; 439168</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>373.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>506.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>421.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>592.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>386.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>794.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1098.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>449811</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>237522</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>923954</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1246955</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>431738</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>185049</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>885831</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1213382</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>881548</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>422571</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1809785</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>2460337</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>393912; 522201</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>189215; 286830</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>837154; 1017137</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1144191; 1347425</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>373317; 489634</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>149633; 227596</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>810265; 967751</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1130632; 1291360</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>797992; 972675</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>360688; 487672</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>1696929; 1928195</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>2328181; 2591320</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>